--- a/NBIS Model.xlsx
+++ b/NBIS Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerem\OneDrive\Masaüstü\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B25E02-5F66-4888-AC92-787C9EE056D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF126A8-CBA2-42FB-8998-F9F2F46A1D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="384" windowWidth="32016" windowHeight="15804" xr2:uid="{15DD2EF7-3D38-48BE-91C3-905AF47E584F}"/>
+    <workbookView xWindow="25260" yWindow="360" windowWidth="27216" windowHeight="16248" xr2:uid="{15DD2EF7-3D38-48BE-91C3-905AF47E584F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>Company Overview</t>
   </si>
@@ -333,9 +333,6 @@
     <t>Amsterdam, Netherlands</t>
   </si>
   <si>
-    <t>28% stake at 6b valuation</t>
-  </si>
-  <si>
     <t>75% stake at 4b valuation (17% employees, 9% uber)</t>
   </si>
   <si>
@@ -349,24 +346,70 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Discounted Minority Stake</t>
+  </si>
+  <si>
+    <t>30% Discount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>% of capex</t>
+  </si>
+  <si>
+    <t>EBIAT</t>
+  </si>
+  <si>
+    <t>% of EBIT</t>
+  </si>
+  <si>
+    <t>Tax Expense</t>
+  </si>
+  <si>
+    <t>18x multiple stock price</t>
+  </si>
+  <si>
+    <t>PV of stock price</t>
+  </si>
+  <si>
+    <t>28% stake at 15b valuation</t>
+  </si>
+  <si>
+    <t>3x multiple stock price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -487,102 +530,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +670,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>340211</xdr:colOff>
+      <xdr:colOff>268493</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190416</xdr:rowOff>
     </xdr:to>
@@ -648,7 +702,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="949235" y="169068"/>
+          <a:off x="949235" y="198120"/>
           <a:ext cx="1006416" cy="586656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -988,32 +1042,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF109371-19EA-41D7-B8D8-BE7C845CD03C}">
-  <dimension ref="A2:U48"/>
+  <dimension ref="A2:U63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.77734375" style="1"/>
+    <col min="1" max="16384" width="12.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
       <c r="H3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1024,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>90.73</v>
+        <v>119.64</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>43</v>
@@ -1035,17 +1089,17 @@
       <c r="R3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="47">
-        <v>45974</v>
-      </c>
-      <c r="T3" s="47"/>
+      <c r="S3" s="51">
+        <v>46037</v>
+      </c>
+      <c r="T3" s="51"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
@@ -1073,50 +1127,50 @@
     </row>
     <row r="6" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="O6" s="43" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="O6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
       <c r="R6" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="H7" s="44" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="H7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="48">
+      <c r="I7" s="48"/>
+      <c r="J7" s="52">
         <v>1371</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="O7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1127,55 +1181,55 @@
       <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="51">
-        <v>87.41</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="H8" s="41" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="56">
+        <v>103.89</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="H8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="49">
+      <c r="I8" s="45"/>
+      <c r="J8" s="53">
         <v>2000</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="O8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R8" s="11">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="51">
-        <f>N40/R8</f>
-        <v>90.729953570552084</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="H9" s="41" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="56">
+        <f>N54/R8</f>
+        <v>119.63526866771996</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="H9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="49" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
       <c r="O9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1187,48 +1241,48 @@
       <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="46">
+      <c r="C10" s="45"/>
+      <c r="D10" s="50">
         <f>D9/D8-1</f>
-        <v>3.7981393096351512E-2</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="H10" s="41" t="s">
+        <v>0.15155711490730539</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="H10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="49" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="O10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R10" s="11">
         <f>R7*R8+R9</f>
-        <v>21621.62</v>
+        <v>22233.489999999998</v>
       </c>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
     </row>
@@ -1309,42 +1363,47 @@
         <v>117.5</v>
       </c>
       <c r="J13" s="32">
-        <v>570.20000000000005</v>
+        <v>552.6</v>
       </c>
       <c r="K13" s="13">
-        <v>2757.3</v>
+        <f>J13*6.05</f>
+        <v>3343.23</v>
       </c>
       <c r="L13" s="32">
-        <v>5830.8</v>
+        <f>K13*2.7</f>
+        <v>9026.7210000000014</v>
       </c>
       <c r="M13" s="32">
-        <v>9194.4</v>
+        <f>L13*1.8</f>
+        <v>16248.097800000003</v>
       </c>
       <c r="N13" s="32">
-        <v>12996</v>
+        <f>M13*1.6</f>
+        <v>25996.956480000008</v>
       </c>
       <c r="O13" s="32">
-        <v>16950</v>
+        <f>N13*1.3</f>
+        <v>33796.04342400001</v>
       </c>
       <c r="P13" s="32">
         <f>O13*1.2</f>
-        <v>20340</v>
+        <v>40555.252108800014</v>
       </c>
       <c r="Q13" s="32">
         <f>P13*1.17</f>
-        <v>23797.8</v>
+        <v>47449.644967296015</v>
       </c>
       <c r="R13" s="32">
         <f>Q13*1.15</f>
-        <v>27367.469999999998</v>
+        <v>54567.091712390415</v>
       </c>
       <c r="S13" s="32">
         <f>R13*1.1</f>
-        <v>30104.217000000001</v>
+        <v>60023.800883629461</v>
       </c>
       <c r="T13" s="32">
         <f>S13*1.07</f>
-        <v>32211.512190000001</v>
+        <v>64225.466945483524</v>
       </c>
       <c r="U13" s="30"/>
     </row>
@@ -1373,27 +1432,27 @@
       </c>
       <c r="J14" s="31">
         <f t="shared" si="0"/>
-        <v>3.8527659574468087</v>
+        <v>3.7029787234042555</v>
       </c>
       <c r="K14" s="31">
         <f>K13/J13-1</f>
-        <v>3.8356716941424063</v>
+        <v>5.05</v>
       </c>
       <c r="L14" s="31">
         <f t="shared" ref="L14:T14" si="1">L13/K13-1</f>
-        <v>1.1146774018061145</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="1"/>
-        <v>0.57686766824449465</v>
+        <v>0.8</v>
       </c>
       <c r="N14" s="31">
         <f t="shared" si="1"/>
-        <v>0.4134690681284261</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="O14" s="31">
         <f t="shared" si="1"/>
-        <v>0.30424746075715614</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="1"/>
@@ -1418,427 +1477,490 @@
       <c r="U14" s="33"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="59" t="s">
+        <v>113</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="T15" s="6"/>
+      <c r="J15" s="43">
+        <f>J13*3/$R$8</f>
+        <v>6.4007722007722014</v>
+      </c>
+      <c r="K15" s="43">
+        <f t="shared" ref="K15:T15" si="2">K13*3/$R$8</f>
+        <v>38.724671814671815</v>
+      </c>
+      <c r="L15" s="43">
+        <f t="shared" si="2"/>
+        <v>104.55661389961392</v>
+      </c>
+      <c r="M15" s="43">
+        <f t="shared" si="2"/>
+        <v>188.20190501930506</v>
+      </c>
+      <c r="N15" s="43">
+        <f t="shared" si="2"/>
+        <v>301.12304803088813</v>
+      </c>
+      <c r="O15" s="43">
+        <f t="shared" si="2"/>
+        <v>391.45996244015458</v>
+      </c>
+      <c r="P15" s="43">
+        <f t="shared" si="2"/>
+        <v>469.75195492818546</v>
+      </c>
+      <c r="Q15" s="43">
+        <f t="shared" si="2"/>
+        <v>549.60978726597705</v>
+      </c>
+      <c r="R15" s="43">
+        <f t="shared" si="2"/>
+        <v>632.05125535587354</v>
+      </c>
+      <c r="S15" s="43">
+        <f t="shared" si="2"/>
+        <v>695.25638089146094</v>
+      </c>
+      <c r="T15" s="43">
+        <f t="shared" si="2"/>
+        <v>743.92432755386324</v>
+      </c>
       <c r="U15" s="27"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="11">
-        <v>674.2</v>
-      </c>
-      <c r="F16" s="11">
-        <v>425</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="B16" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="43">
+        <f>PV($E$53, J63, 0, J15)*-1</f>
+        <v>6.4007722007722014</v>
+      </c>
+      <c r="K16" s="43">
+        <f>PV($E$53, K63, 0, K15)*-1</f>
+        <v>34.758703720197303</v>
+      </c>
+      <c r="L16" s="43">
+        <f>PV($E$53, L63, 0, L15)*-1</f>
+        <v>84.237052369206296</v>
+      </c>
+      <c r="M16" s="43">
+        <f>PV($E$53, M63, 0, M15)*-1</f>
+        <v>136.09792142946893</v>
+      </c>
+      <c r="N16" s="43">
+        <f>PV($E$53, N63, 0, N15)*-1</f>
+        <v>195.45523228359238</v>
+      </c>
+      <c r="O16" s="43">
+        <f>PV($E$53, O63, 0, O15)*-1</f>
+        <v>228.06911585016613</v>
+      </c>
+      <c r="P16" s="43">
+        <f>PV($E$53, P63, 0, P15)*-1</f>
+        <v>245.65383629853633</v>
+      </c>
+      <c r="Q16" s="43">
+        <f>PV($E$53, Q63, 0, Q15)*-1</f>
+        <v>257.97952470091332</v>
+      </c>
+      <c r="R16" s="43">
+        <f>PV($E$53, R63, 0, R15)*-1</f>
+        <v>266.29248129077303</v>
+      </c>
+      <c r="S16" s="43">
+        <f>PV($E$53, S63, 0, S15)*-1</f>
+        <v>262.92229550296236</v>
+      </c>
+      <c r="T16" s="43">
+        <f>PV($E$53, T63, 0, T15)*-1</f>
+        <v>252.51490547362869</v>
+      </c>
+      <c r="U16" s="27"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="59"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="27"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11">
+        <v>220.5</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-174</v>
+      </c>
+      <c r="G18" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="11">
         <v>0</v>
       </c>
-      <c r="I16" s="11">
-        <v>-254.7</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-56.3</v>
-      </c>
-      <c r="K16" s="11">
-        <v>855.7</v>
-      </c>
-      <c r="L16" s="11">
-        <v>2842</v>
-      </c>
-      <c r="M16" s="11">
-        <v>5690.7</v>
-      </c>
-      <c r="N16" s="11">
-        <v>8767.9</v>
-      </c>
-      <c r="O16" s="11">
-        <v>11847.2</v>
-      </c>
-      <c r="P16" s="11">
-        <f>P13*0.65</f>
-        <v>13221</v>
-      </c>
-      <c r="Q16" s="11">
-        <f>Q13*0.65</f>
-        <v>15468.57</v>
-      </c>
-      <c r="R16" s="11">
-        <f>R13*0.65</f>
-        <v>17788.855499999998</v>
-      </c>
-      <c r="S16" s="11">
-        <f>S13*0.65</f>
-        <v>19567.741050000001</v>
-      </c>
-      <c r="T16" s="11">
-        <f>T13*0.65</f>
-        <v>20937.4829235</v>
-      </c>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="I18" s="11">
+        <v>-386.4</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-651.6</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-294.60000000000002</v>
+      </c>
+      <c r="L18" s="11">
+        <f>L13*0.1</f>
+        <v>902.67210000000023</v>
+      </c>
+      <c r="M18" s="11">
+        <f>M13*0.14</f>
+        <v>2274.7336920000007</v>
+      </c>
+      <c r="N18" s="11">
+        <f>N13*0.16</f>
+        <v>4159.5130368000009</v>
+      </c>
+      <c r="O18" s="11">
+        <f>O13*0.18</f>
+        <v>6083.2878163200021</v>
+      </c>
+      <c r="P18" s="11">
+        <f>P13*0.2</f>
+        <v>8111.0504217600028</v>
+      </c>
+      <c r="Q18" s="11">
+        <f>Q13*0.22</f>
+        <v>10438.921892805123</v>
+      </c>
+      <c r="R18" s="11">
+        <f>R13*0.23</f>
+        <v>12550.431093849797</v>
+      </c>
+      <c r="S18" s="11">
+        <f>S13*0.24</f>
+        <v>14405.71221207107</v>
+      </c>
+      <c r="T18" s="11">
+        <f>T13*0.25</f>
+        <v>16056.366736370881</v>
+      </c>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="31">
-        <f t="shared" ref="E17:R17" si="2">E16/E13</f>
-        <v>0.22723289518031684</v>
-      </c>
-      <c r="F17" s="31">
-        <f t="shared" si="2"/>
-        <v>9.0246958146645989E-2</v>
-      </c>
-      <c r="G17" s="31">
-        <f t="shared" si="2"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="31">
+        <f>E18/E13</f>
+        <v>7.4317492416582406E-2</v>
+      </c>
+      <c r="F19" s="31">
+        <f>F18/F13</f>
+        <v>-3.694816639415624E-2</v>
+      </c>
+      <c r="G19" s="31">
+        <f>G18/G13</f>
         <v>0</v>
       </c>
-      <c r="H17" s="31">
-        <f t="shared" si="2"/>
+      <c r="H19" s="31">
+        <f>H18/H13</f>
         <v>0</v>
       </c>
-      <c r="I17" s="31">
-        <f t="shared" si="2"/>
-        <v>-2.1676595744680851</v>
-      </c>
-      <c r="J17" s="31">
-        <f t="shared" si="2"/>
-        <v>-9.8737285163100652E-2</v>
-      </c>
-      <c r="K17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.31033982519131031</v>
-      </c>
-      <c r="L17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.48741167592783152</v>
-      </c>
-      <c r="M17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.61893108848864531</v>
-      </c>
-      <c r="N17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.67466143428747305</v>
-      </c>
-      <c r="O17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.69894985250737462</v>
-      </c>
-      <c r="P17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
-      </c>
-      <c r="Q17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
-      </c>
-      <c r="R17" s="31">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
-      </c>
-      <c r="S17" s="31">
-        <f>S16/S13</f>
-        <v>0.65</v>
-      </c>
-      <c r="T17" s="31">
-        <f>T16/T13</f>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="U17" s="27"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="11">
-        <v>220.5</v>
-      </c>
-      <c r="F19" s="11">
-        <v>-174</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="I19" s="31">
+        <f>I18/I13</f>
+        <v>-3.2885106382978719</v>
+      </c>
+      <c r="J19" s="31">
+        <f>J18/J13</f>
+        <v>-1.1791530944625408</v>
+      </c>
+      <c r="K19" s="31">
+        <f>K18/K13</f>
+        <v>-8.8118376540052584E-2</v>
+      </c>
+      <c r="L19" s="31">
+        <f>L18/L13</f>
+        <v>0.1</v>
+      </c>
+      <c r="M19" s="31">
+        <f>M18/M13</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N19" s="31">
+        <f>N18/N13</f>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="O19" s="31">
+        <f>O18/O13</f>
+        <v>0.18</v>
+      </c>
+      <c r="P19" s="31">
+        <f>P18/P13</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q19" s="31">
+        <f>Q18/Q13</f>
+        <v>0.22</v>
+      </c>
+      <c r="R19" s="31">
+        <f>R18/R13</f>
+        <v>0.23</v>
+      </c>
+      <c r="S19" s="31">
+        <f>S18/S13</f>
+        <v>0.24</v>
+      </c>
+      <c r="T19" s="31">
+        <f>T18/T13</f>
+        <v>0.25</v>
+      </c>
+      <c r="U19" s="27"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="27"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
+      <c r="K21" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>-386.4</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-495.6</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-175</v>
-      </c>
-      <c r="L19" s="11">
-        <v>184.8</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="11">
-        <v>285.60000000000002</v>
-      </c>
-      <c r="F20" s="11">
-        <v>105.8</v>
-      </c>
-      <c r="G20" s="11">
-        <v>144.30000000000001</v>
-      </c>
-      <c r="H20" s="11">
-        <v>296.10000000000002</v>
-      </c>
-      <c r="I20" s="11">
-        <v>-282.89999999999998</v>
-      </c>
-      <c r="J20" s="11">
-        <v>-158.6</v>
-      </c>
-      <c r="K20" s="11">
-        <v>61.8</v>
-      </c>
-      <c r="L20" s="11">
-        <v>-392.7</v>
-      </c>
-      <c r="M20" s="11">
-        <v>500.9</v>
-      </c>
-      <c r="N20" s="11">
-        <v>2979.3</v>
-      </c>
-      <c r="O20" s="11">
-        <v>5327</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="31">
-        <f t="shared" ref="E21:O21" si="3">E20/E13</f>
-        <v>9.6258847320525795E-2</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f>M18*0.1</f>
+        <v>227.47336920000009</v>
+      </c>
+      <c r="N21" s="11">
+        <f>N18*0.12</f>
+        <v>499.14156441600011</v>
+      </c>
+      <c r="O21" s="11">
+        <f>O18*0.14</f>
+        <v>851.66029428480033</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" ref="P21:Q21" si="3">P18*0.15</f>
+        <v>1216.6575632640004</v>
+      </c>
+      <c r="Q21" s="11">
         <f t="shared" si="3"/>
-        <v>2.2466183933917992E-2</v>
-      </c>
-      <c r="G21" s="31">
-        <f t="shared" si="3"/>
-        <v>2.2104102202751143E-2</v>
-      </c>
-      <c r="H21" s="31">
-        <f t="shared" si="3"/>
-        <v>3.425893786879556E-2</v>
-      </c>
-      <c r="I21" s="31">
-        <f t="shared" si="3"/>
-        <v>-2.4076595744680849</v>
-      </c>
-      <c r="J21" s="31">
-        <f t="shared" si="3"/>
-        <v>-0.27814801823921426</v>
-      </c>
-      <c r="K21" s="31">
-        <f t="shared" si="3"/>
-        <v>2.241323033402241E-2</v>
-      </c>
-      <c r="L21" s="31">
-        <f t="shared" si="3"/>
-        <v>-6.7349248816628932E-2</v>
-      </c>
-      <c r="M21" s="31">
-        <f t="shared" si="3"/>
-        <v>5.4478813190637777E-2</v>
-      </c>
-      <c r="N21" s="31">
-        <f t="shared" si="3"/>
-        <v>0.22924746075715607</v>
-      </c>
-      <c r="O21" s="31">
-        <f t="shared" si="3"/>
-        <v>0.31427728613569322</v>
-      </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
+        <v>1565.8382839207684</v>
+      </c>
+      <c r="R21" s="11">
+        <f>R18*0.17</f>
+        <v>2133.5732859544655</v>
+      </c>
+      <c r="S21" s="11">
+        <f>S18*0.18</f>
+        <v>2593.0281981727926</v>
+      </c>
+      <c r="T21" s="11">
+        <f>T18*0.2</f>
+        <v>3211.2733472741766</v>
+      </c>
+      <c r="U21" s="27"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
+      <c r="B22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31">
+        <f>J21/J18</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="31">
+        <f t="shared" ref="K22:T22" si="4">K21/K18</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="O22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="R22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.17</v>
+      </c>
+      <c r="S22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.18</v>
+      </c>
+      <c r="T22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="U22" s="27"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="11">
-        <v>331</v>
-      </c>
-      <c r="F23" s="11">
-        <v>590</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>808</v>
-      </c>
-      <c r="J23" s="11">
-        <v>4010.6</v>
-      </c>
-      <c r="K23" s="11">
-        <v>7504</v>
-      </c>
-      <c r="L23" s="11">
-        <v>5791.7</v>
-      </c>
-      <c r="M23" s="11">
-        <v>7278</v>
-      </c>
-      <c r="N23" s="11">
-        <v>8000.8</v>
-      </c>
-      <c r="O23" s="11">
-        <v>9962.6</v>
-      </c>
-      <c r="P23" s="11">
-        <v>11013</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>10103</v>
-      </c>
-      <c r="R23" s="11">
-        <v>9658</v>
-      </c>
-      <c r="S23" s="11">
-        <v>9660</v>
-      </c>
-      <c r="T23" s="11">
-        <v>9235</v>
-      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="27"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31">
-        <f t="shared" ref="F24" si="4">F23/E23-1</f>
-        <v>0.78247734138972813</v>
-      </c>
-      <c r="G24" s="31">
-        <f t="shared" ref="G24" si="5">G23/F23-1</f>
-        <v>-1</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31">
-        <f t="shared" ref="J24" si="6">J23/I23-1</f>
-        <v>3.9636138613861389</v>
-      </c>
-      <c r="K24" s="31">
-        <f t="shared" ref="K24" si="7">K23/J23-1</f>
-        <v>0.87104173939061491</v>
-      </c>
-      <c r="L24" s="31">
-        <f t="shared" ref="L24" si="8">L23/K23-1</f>
-        <v>-0.22818496801705757</v>
-      </c>
-      <c r="M24" s="31">
-        <f t="shared" ref="M24" si="9">M23/L23-1</f>
-        <v>0.25662586114612296</v>
-      </c>
-      <c r="N24" s="31">
-        <f t="shared" ref="N24" si="10">N23/M23-1</f>
-        <v>9.931299807639471E-2</v>
-      </c>
-      <c r="O24" s="31">
-        <f t="shared" ref="O24" si="11">O23/N23-1</f>
-        <v>0.24520047995200489</v>
-      </c>
-      <c r="P24" s="31">
-        <f t="shared" ref="P24" si="12">P23/O23-1</f>
-        <v>0.10543432437315547</v>
-      </c>
-      <c r="Q24" s="31">
-        <f t="shared" ref="Q24" si="13">Q23/P23-1</f>
-        <v>-8.2629619540543042E-2</v>
-      </c>
-      <c r="R24" s="31">
-        <f t="shared" ref="R24" si="14">R23/Q23-1</f>
-        <v>-4.4046322874393695E-2</v>
-      </c>
-      <c r="S24" s="31">
-        <f t="shared" ref="S24" si="15">S23/R23-1</f>
-        <v>2.0708221163800999E-4</v>
-      </c>
-      <c r="T24" s="31">
-        <f t="shared" ref="T24" si="16">T23/S23-1</f>
-        <v>-4.3995859213250554E-2</v>
-      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
+        <f>J18-J21</f>
+        <v>-651.6</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" ref="K24:T24" si="5">K18-K21</f>
+        <v>-294.60000000000002</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="5"/>
+        <v>902.67210000000023</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="5"/>
+        <v>2047.2603228000007</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="5"/>
+        <v>3660.3714723840008</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="5"/>
+        <v>5231.6275220352018</v>
+      </c>
+      <c r="P24" s="11">
+        <f t="shared" si="5"/>
+        <v>6894.3928584960022</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="5"/>
+        <v>8873.0836088843553</v>
+      </c>
+      <c r="R24" s="11">
+        <f t="shared" si="5"/>
+        <v>10416.857807895331</v>
+      </c>
+      <c r="S24" s="11">
+        <f t="shared" si="5"/>
+        <v>11812.684013898277</v>
+      </c>
+      <c r="T24" s="11">
+        <f t="shared" si="5"/>
+        <v>12845.093389096704</v>
+      </c>
+      <c r="U24" s="27"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="R25" s="14"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>42</v>
+      <c r="B26" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="11">
-        <v>-93.1</v>
+        <v>240.3</v>
       </c>
       <c r="F26" s="11">
-        <v>45.3</v>
+        <v>317.8</v>
       </c>
       <c r="G26" s="11">
         <v>0</v>
@@ -1847,335 +1969,1046 @@
         <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>-1115</v>
+        <v>77.3</v>
       </c>
       <c r="J26" s="11">
-        <v>-2993</v>
+        <f>J30*0.105</f>
+        <v>464.17349999999999</v>
       </c>
       <c r="K26" s="11">
-        <v>-6968.6</v>
+        <f>K30*0.18</f>
+        <v>2068.8876</v>
       </c>
       <c r="L26" s="11">
-        <v>-4730.8</v>
+        <f>L30*0.32</f>
+        <v>4965.3302400000002</v>
       </c>
       <c r="M26" s="11">
-        <v>-1844.3</v>
+        <f>M30*0.35</f>
+        <v>6788.5374375000001</v>
       </c>
       <c r="N26" s="11">
-        <v>-1224.9000000000001</v>
+        <f>N13*0.4</f>
+        <v>10398.782592000003</v>
       </c>
       <c r="O26" s="11">
-        <v>-426.7</v>
+        <f>O13*0.4</f>
+        <v>13518.417369600005</v>
       </c>
       <c r="P26" s="11">
-        <f>P13*0.03</f>
-        <v>610.19999999999993</v>
+        <f>P13*0.4</f>
+        <v>16222.100843520006</v>
       </c>
       <c r="Q26" s="11">
-        <f>Q13*0.1</f>
-        <v>2379.7800000000002</v>
+        <f>Q13*0.4</f>
+        <v>18979.857986918407</v>
       </c>
       <c r="R26" s="11">
-        <f>R13*0.15</f>
-        <v>4105.1204999999991</v>
+        <f>R13*0.4</f>
+        <v>21826.836684956168</v>
       </c>
       <c r="S26" s="11">
-        <f>S13*0.17</f>
-        <v>5117.7168900000006</v>
+        <f>S13*0.4</f>
+        <v>24009.520353451786</v>
       </c>
       <c r="T26" s="11">
-        <f>T13*0.2</f>
-        <v>6442.3024380000006</v>
-      </c>
-      <c r="U26" s="14"/>
+        <f>T13*0.4</f>
+        <v>25690.186778193412</v>
+      </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="31">
-        <f t="shared" ref="E27:T27" si="17">E26/E13</f>
-        <v>-3.1378496798112568E-2</v>
+        <f>E26/E30</f>
+        <v>0.72598187311178253</v>
       </c>
       <c r="F27" s="31">
-        <f t="shared" si="17"/>
-        <v>9.6192640095130906E-3</v>
-      </c>
-      <c r="G27" s="31">
-        <f t="shared" si="17"/>
+        <f>F26/F30</f>
+        <v>0.53864406779661023</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31">
+        <f t="shared" ref="I27:T27" si="6">I26/I30</f>
+        <v>9.566831683168317E-2</v>
+      </c>
+      <c r="J27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.105</v>
+      </c>
+      <c r="K27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+      <c r="L27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.32</v>
+      </c>
+      <c r="M27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="N27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.48739564043981909</v>
+      </c>
+      <c r="O27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.57601302961069523</v>
+      </c>
+      <c r="P27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.64001447734521688</v>
+      </c>
+      <c r="Q27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.73413425342539584</v>
+      </c>
+      <c r="R27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.82770038376392674</v>
+      </c>
+      <c r="S27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.8926180609218819</v>
+      </c>
+      <c r="T27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.93637384822197423</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="31">
+        <f>E26/E13</f>
+        <v>8.0990899898887775E-2</v>
+      </c>
+      <c r="F28" s="31">
+        <f>F26/F13</f>
+        <v>6.748349011530376E-2</v>
+      </c>
+      <c r="G28" s="31">
+        <f>G26/G13</f>
         <v>0</v>
       </c>
-      <c r="H27" s="31">
-        <f t="shared" si="17"/>
+      <c r="H28" s="31">
+        <f>H26/H13</f>
         <v>0</v>
       </c>
-      <c r="I27" s="31">
-        <f t="shared" si="17"/>
-        <v>-9.4893617021276597</v>
-      </c>
-      <c r="J27" s="31">
-        <f t="shared" si="17"/>
-        <v>-5.2490354261662571</v>
-      </c>
-      <c r="K27" s="31">
-        <f t="shared" si="17"/>
-        <v>-2.5273274580205274</v>
-      </c>
-      <c r="L27" s="31">
-        <f t="shared" si="17"/>
-        <v>-0.8113466419702271</v>
-      </c>
-      <c r="M27" s="31">
-        <f t="shared" si="17"/>
-        <v>-0.20058948925432873</v>
-      </c>
-      <c r="N27" s="31">
-        <f t="shared" si="17"/>
-        <v>-9.4252077562326883E-2</v>
-      </c>
-      <c r="O27" s="31">
-        <f t="shared" si="17"/>
-        <v>-2.5174041297935101E-2</v>
-      </c>
-      <c r="P27" s="31">
-        <f t="shared" si="17"/>
-        <v>2.9999999999999995E-2</v>
-      </c>
-      <c r="Q27" s="31">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
-      </c>
-      <c r="R27" s="31">
-        <f t="shared" si="17"/>
-        <v>0.14999999999999997</v>
-      </c>
-      <c r="S27" s="31">
-        <f t="shared" si="17"/>
-        <v>0.17</v>
-      </c>
-      <c r="T27" s="31">
-        <f t="shared" si="17"/>
-        <v>0.2</v>
+      <c r="I28" s="31">
+        <f>I26/I13</f>
+        <v>0.65787234042553189</v>
+      </c>
+      <c r="J28" s="31">
+        <f>J26/J13</f>
+        <v>0.83998099891422362</v>
+      </c>
+      <c r="K28" s="31">
+        <f>K26/K13</f>
+        <v>0.61882897676797588</v>
+      </c>
+      <c r="L28" s="31">
+        <f>L26/L13</f>
+        <v>0.55007020157153408</v>
+      </c>
+      <c r="M28" s="31">
+        <f>M26/M13</f>
+        <v>0.41780505761726761</v>
+      </c>
+      <c r="N28" s="31">
+        <f>N26/N13</f>
+        <v>0.4</v>
+      </c>
+      <c r="O28" s="31">
+        <f>O26/O13</f>
+        <v>0.4</v>
+      </c>
+      <c r="P28" s="31">
+        <f>P26/P13</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q28" s="31">
+        <f>Q26/Q13</f>
+        <v>0.4</v>
+      </c>
+      <c r="R28" s="31">
+        <f>R26/R13</f>
+        <v>0.4</v>
+      </c>
+      <c r="S28" s="31">
+        <f>S26/S13</f>
+        <v>0.4</v>
+      </c>
+      <c r="T28" s="31">
+        <f>T26/T13</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="11">
+        <v>331</v>
+      </c>
+      <c r="F30" s="11">
+        <v>590</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>808</v>
+      </c>
+      <c r="J30" s="11">
+        <v>4420.7</v>
+      </c>
+      <c r="K30" s="11">
+        <f>J30*2.6</f>
+        <v>11493.82</v>
+      </c>
+      <c r="L30" s="11">
+        <f>K30*1.35</f>
+        <v>15516.657000000001</v>
+      </c>
+      <c r="M30" s="11">
+        <f>L30*1.25</f>
+        <v>19395.821250000001</v>
+      </c>
+      <c r="N30" s="11">
+        <f>M30*1.1</f>
+        <v>21335.403375000002</v>
+      </c>
+      <c r="O30" s="11">
+        <f>N30*1.1</f>
+        <v>23468.943712500004</v>
+      </c>
+      <c r="P30" s="11">
+        <f>O30*1.08</f>
+        <v>25346.459209500004</v>
+      </c>
+      <c r="Q30" s="11">
+        <f>P30*1.02</f>
+        <v>25853.388393690006</v>
+      </c>
+      <c r="R30" s="11">
+        <f t="shared" ref="R30:T30" si="7">Q30*1.02</f>
+        <v>26370.456161563805</v>
+      </c>
+      <c r="S30" s="11">
+        <f t="shared" si="7"/>
+        <v>26897.86528479508</v>
+      </c>
+      <c r="T30" s="11">
+        <f t="shared" si="7"/>
+        <v>27435.822590490981</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31">
+        <f t="shared" ref="F31" si="8">F30/E30-1</f>
+        <v>0.78247734138972813</v>
+      </c>
+      <c r="G31" s="31">
+        <f t="shared" ref="G31" si="9">G30/F30-1</f>
+        <v>-1</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31">
+        <f t="shared" ref="J31" si="10">J30/I30-1</f>
+        <v>4.4711633663366337</v>
+      </c>
+      <c r="K31" s="31">
+        <f t="shared" ref="K31" si="11">K30/J30-1</f>
+        <v>1.6</v>
+      </c>
+      <c r="L31" s="31">
+        <f t="shared" ref="L31" si="12">L30/K30-1</f>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="M31" s="31">
+        <f t="shared" ref="M31" si="13">M30/L30-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="N31" s="31">
+        <f t="shared" ref="N31" si="14">N30/M30-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O31" s="31">
+        <f t="shared" ref="O31" si="15">O30/N30-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P31" s="31">
+        <f t="shared" ref="P31" si="16">P30/O30-1</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="Q31" s="31">
+        <f t="shared" ref="Q31" si="17">Q30/P30-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="R31" s="31">
+        <f t="shared" ref="R31" si="18">R30/Q30-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="S31" s="31">
+        <f t="shared" ref="S31" si="19">S30/R30-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="T31" s="31">
+        <f t="shared" ref="T31" si="20">T30/S30-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="31">
+        <f>E30/E13</f>
+        <v>0.11156049882035726</v>
+      </c>
+      <c r="F32" s="31">
+        <f>F30/F13</f>
+        <v>0.1252840124859321</v>
+      </c>
+      <c r="G32" s="31">
+        <f>G30/G13</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="31">
+        <f>H30/H13</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="31">
+        <f>I30/I13</f>
+        <v>6.8765957446808512</v>
+      </c>
+      <c r="J32" s="31">
+        <f>J30/J13</f>
+        <v>7.9998190372783204</v>
+      </c>
+      <c r="K32" s="31">
+        <f>K30/K13</f>
+        <v>3.4379387598220883</v>
+      </c>
+      <c r="L32" s="31">
+        <f>L30/L13</f>
+        <v>1.7189693799110439</v>
+      </c>
+      <c r="M32" s="31">
+        <f>M30/M13</f>
+        <v>1.193728736049336</v>
+      </c>
+      <c r="N32" s="31">
+        <f>N30/N13</f>
+        <v>0.82068850603391841</v>
+      </c>
+      <c r="O32" s="31">
+        <f>O30/O13</f>
+        <v>0.6944287358748541</v>
+      </c>
+      <c r="P32" s="31">
+        <f>P30/P13</f>
+        <v>0.62498586228736874</v>
+      </c>
+      <c r="Q32" s="31">
+        <f>Q30/Q13</f>
+        <v>0.54485946968642407</v>
+      </c>
+      <c r="R32" s="31">
+        <f>R30/R13</f>
+        <v>0.48326666006969782</v>
+      </c>
+      <c r="S32" s="31">
+        <f>S30/S13</f>
+        <v>0.44811999388281065</v>
+      </c>
+      <c r="T32" s="31">
+        <f>T30/T13</f>
+        <v>0.42717980725277277</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11">
+        <f>J24+24</f>
+        <v>-627.6</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" ref="K34:T34" si="21">K24+24</f>
+        <v>-270.60000000000002</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="21"/>
+        <v>926.67210000000023</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" si="21"/>
+        <v>2071.2603228000007</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" si="21"/>
+        <v>3684.3714723840008</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" si="21"/>
+        <v>5255.6275220352018</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" si="21"/>
+        <v>6918.3928584960022</v>
+      </c>
+      <c r="Q34" s="11">
+        <f t="shared" si="21"/>
+        <v>8897.0836088843553</v>
+      </c>
+      <c r="R34" s="11">
+        <f t="shared" si="21"/>
+        <v>10440.857807895331</v>
+      </c>
+      <c r="S34" s="11">
+        <f t="shared" si="21"/>
+        <v>11836.684013898277</v>
+      </c>
+      <c r="T34" s="11">
+        <f t="shared" si="21"/>
+        <v>12869.093389096704</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31">
+        <f>J34/J13</f>
+        <v>-1.1357220412595006</v>
+      </c>
+      <c r="K35" s="31">
+        <f>K34/K13</f>
+        <v>-8.0939690060211233E-2</v>
+      </c>
+      <c r="L35" s="31">
+        <f>L34/L13</f>
+        <v>0.10265877277031162</v>
+      </c>
+      <c r="M35" s="31">
+        <f>M34/M13</f>
+        <v>0.12747709598350648</v>
+      </c>
+      <c r="N35" s="31">
+        <f>N34/N13</f>
+        <v>0.14172318498969153</v>
+      </c>
+      <c r="O35" s="31">
+        <f>O34/O13</f>
+        <v>0.15551014229976273</v>
+      </c>
+      <c r="P35" s="31">
+        <f>P34/P13</f>
+        <v>0.17059178524980226</v>
+      </c>
+      <c r="Q35" s="31">
+        <f>Q34/Q13</f>
+        <v>0.18750579935880538</v>
+      </c>
+      <c r="R35" s="31">
+        <f>R34/R13</f>
+        <v>0.19133982552939596</v>
+      </c>
+      <c r="S35" s="31">
+        <f>S34/S13</f>
+        <v>0.19719984139035995</v>
+      </c>
+      <c r="T35" s="31">
+        <f>T34/T13</f>
+        <v>0.20037368354239249</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="43">
+        <f>J34*18/$R$8</f>
+        <v>-43.61698841698842</v>
+      </c>
+      <c r="K36" s="43">
+        <f t="shared" ref="K36:T36" si="22">K34*18/$R$8</f>
+        <v>-18.806177606177606</v>
+      </c>
+      <c r="L36" s="43">
+        <f t="shared" si="22"/>
+        <v>64.401922007722021</v>
+      </c>
+      <c r="M36" s="43">
+        <f t="shared" si="22"/>
+        <v>143.94859386254831</v>
+      </c>
+      <c r="N36" s="43">
+        <f t="shared" si="22"/>
+        <v>256.0567046444479</v>
+      </c>
+      <c r="O36" s="43">
+        <f t="shared" si="22"/>
+        <v>365.25596678236923</v>
+      </c>
+      <c r="P36" s="43">
+        <f t="shared" si="22"/>
+        <v>480.81494769470282</v>
+      </c>
+      <c r="Q36" s="43">
+        <f t="shared" si="22"/>
+        <v>618.33013498037985</v>
+      </c>
+      <c r="R36" s="43">
+        <f t="shared" si="22"/>
+        <v>725.61946155257124</v>
+      </c>
+      <c r="S36" s="43">
+        <f t="shared" si="22"/>
+        <v>822.62668822459068</v>
+      </c>
+      <c r="T36" s="43">
+        <f t="shared" si="22"/>
+        <v>894.37714673258949</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B37" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="43">
+        <f>PV($E$53, J63, 0, J36)*-1</f>
+        <v>-43.61698841698842</v>
+      </c>
+      <c r="K37" s="43">
+        <f>PV($E$53, K63, 0, K36)*-1</f>
+        <v>-16.880152236044882</v>
+      </c>
+      <c r="L37" s="43">
+        <f>PV($E$53, L63, 0, L36)*-1</f>
+        <v>51.886034508067127</v>
+      </c>
+      <c r="M37" s="43">
+        <f>PV($E$53, M63, 0, M36)*-1</f>
+        <v>104.09620675932078</v>
+      </c>
+      <c r="N37" s="43">
+        <f>PV($E$53, N63, 0, N36)*-1</f>
+        <v>166.2032282527841</v>
+      </c>
+      <c r="O37" s="43">
+        <f>PV($E$53, O63, 0, O36)*-1</f>
+        <v>212.80236396024239</v>
+      </c>
+      <c r="P37" s="43">
+        <f>PV($E$53, P63, 0, P36)*-1</f>
+        <v>251.43915892577994</v>
+      </c>
+      <c r="Q37" s="43">
+        <f>PV($E$53, Q63, 0, Q36)*-1</f>
+        <v>290.2359419834965</v>
+      </c>
+      <c r="R37" s="43">
+        <f>PV($E$53, R63, 0, R36)*-1</f>
+        <v>305.71414145979873</v>
+      </c>
+      <c r="S37" s="43">
+        <f>PV($E$53, S63, 0, S36)*-1</f>
+        <v>311.0894098270411</v>
+      </c>
+      <c r="T37" s="43">
+        <f>PV($E$53, T63, 0, T36)*-1</f>
+        <v>303.58405055466017</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U38" s="14"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="11">
+        <v>-93.1</v>
+      </c>
+      <c r="F39" s="11">
+        <v>45.3</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>-1115</v>
+      </c>
+      <c r="J39" s="11">
+        <f>J24+J26-J30</f>
+        <v>-4608.1265000000003</v>
+      </c>
+      <c r="K39" s="11">
+        <f>K24+K26-K30</f>
+        <v>-9719.5324000000001</v>
+      </c>
+      <c r="L39" s="11">
+        <f>L24+L26-L30</f>
+        <v>-9648.6546600000001</v>
+      </c>
+      <c r="M39" s="11">
+        <f>M24+M26-M30</f>
+        <v>-10560.023489700001</v>
+      </c>
+      <c r="N39" s="11">
+        <f>N24+N26-N30</f>
+        <v>-7276.2493106159982</v>
+      </c>
+      <c r="O39" s="11">
+        <f>O24+O26-O30</f>
+        <v>-4718.898820864797</v>
+      </c>
+      <c r="P39" s="11">
+        <f>P24+P26-P30</f>
+        <v>-2229.9655074839975</v>
+      </c>
+      <c r="Q39" s="11">
+        <f>Q24+Q26-Q30</f>
+        <v>1999.5532021127547</v>
+      </c>
+      <c r="R39" s="11">
+        <f>R24+R26-R30</f>
+        <v>5873.2383312876955</v>
+      </c>
+      <c r="S39" s="11">
+        <f>S24+S26-S30</f>
+        <v>8924.3390825549795</v>
+      </c>
+      <c r="T39" s="11">
+        <f>T24+T26-T30</f>
+        <v>11099.457576799137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="31">
+        <f>E39/E13</f>
+        <v>-3.1378496798112568E-2</v>
+      </c>
+      <c r="F40" s="31">
+        <f>F39/F13</f>
+        <v>9.6192640095130906E-3</v>
+      </c>
+      <c r="G40" s="31">
+        <f>G39/G13</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="31">
+        <f>H39/H13</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="31">
+        <f>I39/I13</f>
+        <v>-9.4893617021276597</v>
+      </c>
+      <c r="J40" s="31">
+        <f>J39/J13</f>
+        <v>-8.3389911328266386</v>
+      </c>
+      <c r="K40" s="31">
+        <f>K39/K13</f>
+        <v>-2.9072281595941649</v>
+      </c>
+      <c r="L40" s="31">
+        <f>L39/L13</f>
+        <v>-1.0688991783395099</v>
+      </c>
+      <c r="M40" s="31">
+        <f>M39/M13</f>
+        <v>-0.64992367843206844</v>
+      </c>
+      <c r="N40" s="31">
+        <f>N39/N13</f>
+        <v>-0.27988850603391846</v>
+      </c>
+      <c r="O40" s="31">
+        <f>O39/O13</f>
+        <v>-0.13962873587485408</v>
+      </c>
+      <c r="P40" s="31">
+        <f>P39/P13</f>
+        <v>-5.4985862287368723E-2</v>
+      </c>
+      <c r="Q40" s="31">
+        <f>Q39/Q13</f>
+        <v>4.2140530313575959E-2</v>
+      </c>
+      <c r="R40" s="31">
+        <f>R39/R13</f>
+        <v>0.10763333993030223</v>
+      </c>
+      <c r="S40" s="31">
+        <f>S39/S13</f>
+        <v>0.14868000611718929</v>
+      </c>
+      <c r="T40" s="31">
+        <f>T39/T13</f>
+        <v>0.17282019274722729</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E43" s="1">
         <v>22</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G43" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="1" t="s">
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="37">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="N43" s="37">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E44" s="10">
         <v>1</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="35">
-        <f>(T26*(1+N30)/(E40-N30)) / (1 + E40)^11</f>
-        <v>22579.865674441517</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="N44" s="35">
+        <f>(T39*(1+N43)/(E53-N43)) / (1 + E53)^10</f>
+        <v>46142.512891448423</v>
+      </c>
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E45" s="10">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G45" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E46" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N33" s="35">
-        <f>NPV(E40,K26:T26)</f>
-        <v>-5155.9173746623937</v>
-      </c>
-      <c r="P33" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+      <c r="N46" s="35">
+        <f>NPV(E53,K39:T39)</f>
+        <v>-22216.978306508954</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E47" s="10">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E48" s="1">
         <v>4.0910000000000002</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="G48" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N35" s="35">
-        <f>N31+N33</f>
-        <v>17423.948299779124</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="N48" s="35">
+        <f>N44+N46</f>
+        <v>23925.534584939469</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E49" s="10">
         <v>0</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N36" s="35">
+      <c r="N49" s="35">
         <f>4000*0.75</f>
         <v>3000</v>
       </c>
-      <c r="P36" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="P49" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="10">
-        <f>E32+E33*E34</f>
+      <c r="E50" s="10">
+        <f>E45+E46*E47</f>
         <v>0.11410000000000001</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N37" s="35">
+      <c r="N50" s="35">
         <f>1000*0.6</f>
         <v>600</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="P50" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E51" s="10">
         <v>0.08</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="35">
+      <c r="N51" s="35">
         <f>200*0.8</f>
         <v>160</v>
       </c>
-      <c r="P38" s="14" t="s">
+      <c r="P51" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="36" t="s">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B52" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="39">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="39">
         <v>0.27</v>
       </c>
-      <c r="K39" s="36" t="s">
+      <c r="K52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="38">
-        <f>6000*0.28</f>
-        <v>1680.0000000000002</v>
-      </c>
-      <c r="P39" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+      <c r="N52" s="35">
+        <f>15000*0.28</f>
+        <v>4200</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="10">
-        <f>E31*E37+E36*E38*(1-E39)</f>
+      <c r="E53" s="10">
+        <f>E44*E50+E49*E51*(1-E52)</f>
         <v>0.11410000000000001</v>
       </c>
-      <c r="N40" s="35">
-        <f>SUM(N35:N39)</f>
-        <v>22863.948299779124</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="L48" s="1" t="s">
+      <c r="K53" s="42" t="s">
         <v>103</v>
+      </c>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="38">
+        <f>N52+N51+N50+N49*0.7</f>
+        <v>7060</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K54" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="N54" s="35">
+        <f>N53+N48</f>
+        <v>30985.534584939469</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L61" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J63" s="11">
+        <f t="shared" ref="J63:S63" si="23">K63-1</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="11">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="L63" s="11">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="M63" s="11">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="N63" s="11">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="O63" s="11">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="P63" s="11">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="Q63" s="11">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="R63" s="11">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="S63" s="11">
+        <f>T63-1</f>
+        <v>9</v>
+      </c>
+      <c r="T63" s="11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K42:N42"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="S3:T3"/>
@@ -2186,13 +3019,13 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="O42:T42"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="H7:I7"/>
@@ -2216,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DABAF3-2E83-4667-B377-939AB0CCC065}">
   <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2245,13 +3078,13 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:20" s="52" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="58" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="52" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="58" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
